--- a/docs/画面項目定義書/instance_type_management/mo_instance_type_edit.xlsx
+++ b/docs/画面項目定義書/instance_type_management/mo_instance_type_edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\instance_type_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\instance_type_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB864BDD-DA7D-4D8B-AEC8-21EC10E8C3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6875F81E-0D4A-4EC0-A2ED-8F05062D7A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -214,29 +214,29 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>image_dashboardへ遷移</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力内容を確定し、image_dashboardへ遷移</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>・インスタンスタイプオブジェクトから取得して初期表示</t>
     <rPh sb="22" eb="24">
       <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>image_dashboard.htmlへ遷移</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>入力内容を確定し、image_dashboard.htmlへ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1114,7 +1114,7 @@
     <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1134,7 +1134,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.5">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1143,7 +1143,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1152,7 +1152,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.25">
       <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.25">
       <c r="A6" s="40" t="s">
         <v>25</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.25">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1187,7 +1187,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.25">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="13.25">
       <c r="A10" s="24">
         <v>2</v>
       </c>
@@ -1243,10 +1243,10 @@
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.25">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1260,10 +1260,10 @@
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.5">
       <c r="A12" s="24">
         <v>4</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:7" ht="26">
+    <row r="13" spans="1:7" ht="26.5">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1294,10 +1294,10 @@
         <v>26</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.25">
       <c r="A14" s="24">
         <v>6</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:7" ht="26">
+    <row r="15" spans="1:7" ht="26.5">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1330,10 +1330,10 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.25">
       <c r="A16" s="24">
         <v>8</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="G16" s="34"/>
     </row>
-    <row r="17" spans="1:7" ht="26">
+    <row r="17" spans="1:7" ht="26.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1365,10 +1365,10 @@
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.25">
       <c r="A18" s="24">
         <v>10</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" ht="26">
+    <row r="19" spans="1:7" ht="26.5">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -1401,10 +1401,10 @@
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.25">
       <c r="A20" s="24">
         <v>12</v>
       </c>
@@ -1415,17 +1415,17 @@
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.25">
       <c r="A21" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.25">
       <c r="A22" s="24">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.25">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1436,21 +1436,21 @@
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.25">
       <c r="A24" s="24">
         <v>16</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.25">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.25">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
@@ -1459,7 +1459,7 @@
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.25">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
@@ -1468,7 +1468,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.25">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
@@ -1477,7 +1477,7 @@
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
